--- a/dashboard/csv_files/list_student.xlsx
+++ b/dashboard/csv_files/list_student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Mã SV</t>
   </si>
@@ -25,13 +25,184 @@
     <t>Điểm tổng kết 3 kỳ</t>
   </si>
   <si>
+    <t>Đinh Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Hà Bảo Anh</t>
+  </si>
+  <si>
+    <t>Lưu Đức Anh</t>
+  </si>
+  <si>
+    <t>Trần Nam Bá</t>
+  </si>
+  <si>
+    <t>Ngô Đức Bảo</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Bảo Bảo</t>
+  </si>
+  <si>
+    <t>Đỗ Xuân Đức Chung</t>
+  </si>
+  <si>
+    <t>Phạm Tài Đức Phú Đa</t>
+  </si>
+  <si>
+    <t>Lê Tấn Đạt</t>
+  </si>
+  <si>
+    <t>Phạm Hà Văn Đông</t>
+  </si>
+  <si>
+    <t>Trịnh Ngọc Đức</t>
+  </si>
+  <si>
+    <t>Tăng Hoài Duy</t>
+  </si>
+  <si>
+    <t>Thái Thị Hiền</t>
+  </si>
+  <si>
+    <t>Phạm Thế Hiển</t>
+  </si>
+  <si>
+    <t>Trần Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Hòa</t>
+  </si>
+  <si>
     <t>Ngô Quốc Hoàng</t>
   </si>
   <si>
+    <t>Hồ Quang Huy</t>
+  </si>
+  <si>
+    <t>Lương Quang Khải</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Duy Khang</t>
+  </si>
+  <si>
+    <t>Lê Mỹ Thanh Lành</t>
+  </si>
+  <si>
+    <t>Trần Hồ Phi Long</t>
+  </si>
+  <si>
+    <t>Trương Thị Cẩm Ly</t>
+  </si>
+  <si>
+    <t>Quách Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phúc Nhân</t>
+  </si>
+  <si>
     <t>Lưu Thị Yến Nhi</t>
   </si>
   <si>
+    <t>Lê Huy Phát</t>
+  </si>
+  <si>
+    <t>Lê Thanh Phong</t>
+  </si>
+  <si>
+    <t>Phan Nguyễn Mai Phương</t>
+  </si>
+  <si>
+    <t>Vũ Minh Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Quốc</t>
+  </si>
+  <si>
+    <t>Dương Văn Sang</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Sinh</t>
+  </si>
+  <si>
+    <t>Phạm Trung Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Sỹ</t>
+  </si>
+  <si>
+    <t>Văn Sỹ</t>
+  </si>
+  <si>
+    <t>Lê Duy Tâm</t>
+  </si>
+  <si>
+    <t>Phan Nguyễn Trọng Tân</t>
+  </si>
+  <si>
+    <t>Trương Nguyễn Duy Tân</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Thịnh</t>
+  </si>
+  <si>
+    <t>Phạm Huỳnh Trường Thịnh</t>
+  </si>
+  <si>
+    <t>Trần Xuân Thủy</t>
+  </si>
+  <si>
+    <t>Lê Văn Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Đặng Minh Toại</t>
+  </si>
+  <si>
+    <t>Huỳnh Minh Toàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Toàn</t>
+  </si>
+  <si>
+    <t>Lưu Hoàng Ngọc Trinh</t>
+  </si>
+  <si>
+    <t>Lê Văn Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Trung</t>
+  </si>
+  <si>
     <t>Phạm Thành Trung</t>
+  </si>
+  <si>
+    <t>Phan Chí Trung</t>
+  </si>
+  <si>
+    <t>Đào Duy Trường</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Trường</t>
+  </si>
+  <si>
+    <t>Huỳnh Anh Tú</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Phạm Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Phan Lê Hoàng Việt</t>
+  </si>
+  <si>
+    <t>Trần Tuấn Vũ</t>
   </si>
 </sst>
 </file>
@@ -389,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19477071</v>
+        <v>19489471</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3.47</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19522491</v>
+        <v>19442001</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3.47</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -439,13 +610,811 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19502701</v>
+        <v>19478881</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19506751</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>19487461</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>19514491</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>19498401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>19442481</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>19463951</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>19500311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>19469091</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>19498561</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>19527801</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>19529741</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>19441341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>19429041</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>19477071</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>19443561</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19529041</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19526961</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>19525231</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>19500551</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>19532211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>19502841</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>19499101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>19440221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>19522491</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>19469351</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>19475611</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>19469121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>19495101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>19477141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>19495031</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>19477821</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>19518291</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>19440181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>19495751</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>19445631</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>19502821</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>19485441</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>19469481</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>19501001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>19471271</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>19446021</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>19430791</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>19529711</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>19500761</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>19447201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>19477811</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>19491741</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>19477111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>19502701</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
         <v>3.69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>19499041</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>19510211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>19519011</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>19446701</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>19497581</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>19469421</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>19512321</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>19474281</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
